--- a/log_files/applied_jobs.xlsx
+++ b/log_files/applied_jobs.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -502,6 +502,28 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>10/04/2024 07:19</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Data Scientist</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Diamondpick</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Charlotte, NC (Remote)</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/log_files/applied_jobs.xlsx
+++ b/log_files/applied_jobs.xlsx
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -524,6 +524,850 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>10/08/2024 21:24</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Data Engineer</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Harnham</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Chandler, AZ (On-site)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>$110K/yr - $140K/yr · Data Engineering · Python +2</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>10/08/2024 21:27</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Data Scientist</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>High Quartile</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Plano, TX (Hybrid)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>$70.5K/yr</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>10/08/2024 21:29</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Data Scientist</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>High Quartile</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Plano, TX (Hybrid)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>$70.5K/yr</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>10/08/2024 21:30</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Data Scientist</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>High Quartile</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Plano, TX (Hybrid)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>$70.5K/yr</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>10/08/2024 21:30</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Data Scientist</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>PartnerRe</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Charlotte, NC (Hybrid)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Medical benefit</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>10/08/2024 21:35</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Data Scientist</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>High Quartile</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Plano, TX (Hybrid)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>$70.5K/yr</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>10/08/2024 21:35</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Data Scientist</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>PartnerRe</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Charlotte, NC (Hybrid)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Medical benefit</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>10/08/2024 21:38</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Data Scientist</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>PartnerRe</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Charlotte, NC (Hybrid)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Medical benefit</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>10/08/2024 21:42</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Data Scientist</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>PartnerRe</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Charlotte, NC (Hybrid)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Medical benefit</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>10/08/2024 21:44</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Data Scientist</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>PartnerRe</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Charlotte, NC (Hybrid)</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Medical benefit</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>10/08/2024 21:46</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Data Scientist</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>PartnerRe</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Charlotte, NC (Hybrid)</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Medical benefit</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>10/08/2024 21:46</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Data Scientist</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>High Quartile</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Plano, TX (Hybrid)</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>$70.5K/yr</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>10/08/2024 21:46</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Data Scientist</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>HCLTech</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Portland, Oregon Metropolitan Area (On-site)</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>$40/hr - $55/hr</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>10/08/2024 21:46</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Data Scientist</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Xpanse</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>United States (Remote)</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>10/08/2024 21:49</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Data Scientist</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Perfict</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Pasadena, CA (Remote)</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>4 benefits</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>10/08/2024 21:50</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Data Scientist</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Perfict</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Pasadena, CA (Remote)</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>4 benefits</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>10/08/2024 21:52</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Data Scientist</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>High Quartile</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Plano, TX (Hybrid)</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>$70.5K/yr</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>10/08/2024 21:52</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Data Scientist</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Xpanse</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>United States (Remote)</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>10/08/2024 21:52</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Data Scientist</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Xpanse</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>United States (Remote)</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>10/08/2024 21:52</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Data Scientist</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>HCLTech</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Portland, Oregon Metropolitan Area (On-site)</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>$40/hr - $55/hr</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>10/08/2024 21:52</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Data Scientist</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Perfict</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Pasadena, CA (Remote)</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>4 benefits</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>10/08/2024 21:53</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Data Scientist</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>High Quartile</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Plano, TX (Hybrid)</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>$70.5K/yr</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>10/08/2024 21:53</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Data Scientist</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>HCLTech</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Portland, Oregon Metropolitan Area (On-site)</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>$40/hr - $55/hr</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>10/08/2024 21:53</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Data Scientist</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Xpanse</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>United States (Remote)</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>10/08/2024 21:54</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Data Scientist</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Vertisystem</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>San Francisco, CA (On-site)</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>$60/hr - $70/hr</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>10/08/2024 21:54</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Data Scientist</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Synergy Interactive</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Chicago, IL (Remote)</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>$65/yr - $75/yr</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>10/08/2024 21:54</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Data Scientist</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Synergy Interactive</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Chicago, IL (Remote)</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>$65/yr - $75/yr</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>10/08/2024 21:54</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Data Scientist</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>The Lab Consulting</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Houston, TX (Hybrid)</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>5 benefits</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>10/08/2024 21:54</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Data Scientist</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>The Lab Consulting</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Houston, TX (Hybrid)</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>5 benefits</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>10/08/2024 21:54</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Data Scientist</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Saks</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>United States (Remote)</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>$100K/yr - $130K/yr · 6 benefits</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>10/08/2024 21:54</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Data Scientist</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Saks</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>United States (Remote)</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>$100K/yr - $130K/yr · 6 benefits</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>10/08/2024 21:54</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Python Developer- Data Team- $150,000-$200,000 + bonus!</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Saragossa</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>New York City Metropolitan Area (Hybrid)</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>$150K/yr - $200K/yr · Data Engineering · Python +1</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/log_files/applied_jobs.xlsx
+++ b/log_files/applied_jobs.xlsx
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1368,6 +1368,867 @@
         </is>
       </c>
     </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>10/08/2024 23:11</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Data Scientist</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>PartnerRe</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Charlotte, NC (Hybrid)</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Medical benefit</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>10/08/2024 23:11</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Data Scientist</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Vertisystem</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>San Francisco, CA (On-site)</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>$60/hr - $70/hr</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>10/08/2024 23:11</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Data Scientist</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>High Quartile</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Plano, TX (Hybrid)</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>$70.5K/yr</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>10/08/2024 23:11</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Data Scientist</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>HCLTech</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Portland, Oregon Metropolitan Area (On-site)</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>$40/hr - $55/hr</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>10/08/2024 23:11</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Data Scientist</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Xpanse</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>United States (Remote)</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>10/08/2024 23:11</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Data Scientist</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Synergy Interactive</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Chicago, IL (Remote)</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>$65/yr - $75/yr</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>10/08/2024 23:11</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Data Scientist</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Inceed</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Oklahoma City, OK (On-site)</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>$70K/yr - $80K/yr · Vision benefit</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>10/08/2024 23:13</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Data Scientist</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>PartnerRe</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Charlotte, NC (Hybrid)</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Medical benefit</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>10/08/2024 23:13</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Data Scientist</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>High Quartile</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Plano, TX (Hybrid)</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>$70.5K/yr</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>10/08/2024 23:13</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Data Scientist</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>HCLTech</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Portland, Oregon Metropolitan Area (On-site)</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>$40/hr - $55/hr</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>10/08/2024 23:13</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Data Scientist</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Xpanse</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>United States (Remote)</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>10/08/2024 23:14</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Data Scientist</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>CareHarmony</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>United States (Remote)</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>10/08/2024 23:14</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Data Scientist</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Inceed</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Oklahoma City, OK (On-site)</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>$70K/yr - $80K/yr · Vision benefit</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>10/08/2024 23:14</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Data Scientist</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>KDR Talent Solutions USA</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Boston, MA (Remote)</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>$90K/yr - $130K/yr · 7 benefits</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>10/08/2024 23:14</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Data Scientist</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>KDR Talent Solutions USA</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Boston, MA (Remote)</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>$90K/yr - $130K/yr · 7 benefits</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>10/08/2024 23:14</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Data Scientist</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Synergy Interactive</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Chicago, IL (Remote)</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>$65/yr - $75/yr</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>10/08/2024 23:14</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Python Developer- Data Team- $150,000-$200,000 + bonus!</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Saragossa</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>New York City Metropolitan Area (Hybrid)</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>$150K/yr - $200K/yr · Data Engineering · Python +1</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>10/08/2024 23:16</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Data Analyst</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>FSTONE Technologies</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>New York, NY (Remote)</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>401(k) benefit</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>10/08/2024 23:17</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Data Analyst</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>FSTONE Technologies</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>New York, NY (Remote)</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>401(k) benefit</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>10/08/2024 23:17</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Data Analyst</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Curinos</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>New York, NY (Hybrid)</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>$67.5K/yr - $75K/yr</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>10/08/2024 23:19</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Data Analyst</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>FSTONE Technologies</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>New York, NY (Remote)</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>401(k) benefit</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>10/08/2024 23:19</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Data Analyst</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Numero Data</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Herndon, VA (On-site)</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>$70K/yr - $75K/yr · 3 benefits</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>10/08/2024 23:19</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Data Analyst</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Numero Data</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Herndon, VA (On-site)</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>$70K/yr - $75K/yr · 3 benefits</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>10/08/2024 23:19</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Data Analyst</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>DigniFi</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>United States (Remote)</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>$90K/yr - $108K/yr · 401(k), Vision, +1 benefit</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>10/08/2024 23:19</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Data Analyst</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>DigniFi</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>United States (Remote)</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>$90K/yr - $108K/yr · 401(k), Vision, +1 benefit</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>10/08/2024 23:20</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Reference Data Analyst</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Selby Jennings</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Chicago, IL (On-site)</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>$150K/yr - $200K/yr + Bonus</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>10/08/2024 23:20</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Reference Data Analyst</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Selby Jennings</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Chicago, IL (On-site)</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>$150K/yr - $200K/yr + Bonus</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>10/08/2024 23:20</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Data Analyst</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>LHH</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Columbus, Ohio Metropolitan Area (Hybrid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>10/08/2024 23:20</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Data Analyst</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>LHH</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Columbus, Ohio Metropolitan Area (Hybrid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>10/08/2024 23:20</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Junior Data Analyst</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>ExperienceIT, a Globant Division</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Minneapolis, MN (On-site)</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>10/08/2024 23:20</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Data Analyst</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Careismatic Brands, Inc.</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Los Angeles, CA (On-site)</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>$70K/yr - $75K/yr · 401(k), Dental, Medical, Vision, +1 benefit</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>10/08/2024 23:20</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Data Analyst</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Careismatic Brands, Inc.</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Los Angeles, CA (On-site)</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>$70K/yr - $75K/yr · 401(k), Dental, Medical, Vision, +1 benefit</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>10/08/2024 23:20</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Data Analyst (Contract)</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Atmosfy</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>United States (Remote)</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>$60K/yr - $90K/yr</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
